--- a/Materials.xlsx
+++ b/Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.ballesteros\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ricard/Downloads/RP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48A036A7-A24B-43AA-9DED-DBF622C9A5EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10702935-AD59-9B45-945D-8F2F68DA2426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A1B1DAEE-202A-4236-96EB-E294F8C7AD9D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" xr2:uid="{A1B1DAEE-202A-4236-96EB-E294F8C7AD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Aluminium Alloys</t>
   </si>
@@ -79,6 +89,9 @@
   </si>
   <si>
     <t>Steel</t>
+  </si>
+  <si>
+    <t>Al-2024</t>
   </si>
 </sst>
 </file>
@@ -173,21 +186,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -196,13 +206,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -230,7 +237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -529,196 +536,196 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="21" width="15.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="21" width="15.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>115000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>483</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>8.2599999999999992E-9</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>0.3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>16.11</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>5.25</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>71000000</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2024</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>73000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>165.44499999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>2.7999999999999998E-9</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>0.33</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>2.4750000000000001</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>12</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>220000000</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>113800</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>880</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>4.4299999999999998E-9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f>(19.4+23.8)/2</f>
         <v>21.6</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>19.7</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>317000000</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>190000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>517.01700000000005</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="G5" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>2.4049999999999998</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>5</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>81000000</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="9"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F9" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
